--- a/document/生活/生.xlsx
+++ b/document/生活/生.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,10 @@
   </si>
   <si>
     <t>2018-02-23日开始的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,11 +469,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2045343600"/>
-        <c:axId val="-2045334896"/>
+        <c:axId val="-608345120"/>
+        <c:axId val="-608359264"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2045343600"/>
+        <c:axId val="-608345120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,14 +516,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045334896"/>
+        <c:crossAx val="-608359264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2045334896"/>
+        <c:axId val="-608359264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +574,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2045343600"/>
+        <c:crossAx val="-608345120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1499,13 +1503,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -1926,13 +1931,25 @@
       <c r="A45" s="1">
         <v>43201</v>
       </c>
+      <c r="B45">
+        <v>36.26</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43202</v>
       </c>
+      <c r="B46">
+        <v>36.54</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="E46">
         <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
